--- a/ArchLab2/riscv_sources/machine_code_template.xlsx
+++ b/ArchLab2/riscv_sources/machine_code_template.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Arch\ArchLab2\riscv_sources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F537527B-9F85-4BCC-ABA6-62B7A96A89FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10575"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="139">
   <si>
     <t>NO.</t>
   </si>
@@ -224,9 +228,6 @@
     <t>44</t>
   </si>
   <si>
-    <t>TO_BE_FILLED</t>
-  </si>
-  <si>
     <t>48</t>
   </si>
   <si>
@@ -308,146 +309,158 @@
     <t>74</t>
   </si>
   <si>
+    <t>34102cf3</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>trap:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">csrr x25, 0x341 </t>
+  </si>
+  <si>
+    <t># mepc</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>34202df3</t>
+  </si>
+  <si>
+    <t>7C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">csrr x27, 0x342  </t>
+  </si>
+  <si>
+    <t># mcause</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>30002e73</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">csrr x28, 0x300  </t>
+  </si>
+  <si>
+    <t># mstatus</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>30402ef3</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">csrr x29, 0x304 </t>
+  </si>
+  <si>
+    <t># mie</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t># mip</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>004c8113</t>
+  </si>
+  <si>
+    <t>8C</t>
+  </si>
+  <si>
+    <t>addi x2, x25, 4</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>34111073</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>csrw 0x341, x2</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>30200073</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>mret</t>
+  </si>
+  <si>
+    <t># mret</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>9C</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
     <t>jr x0</t>
-  </si>
-  <si>
-    <t>34102cf3</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>trap:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">csrr x25, 0x341 </t>
-  </si>
-  <si>
-    <t># mepc</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>34202df3</t>
-  </si>
-  <si>
-    <t>7C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">csrr x27, 0x342  </t>
-  </si>
-  <si>
-    <t># mcause</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>30002e73</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">csrr x28, 0x300  </t>
-  </si>
-  <si>
-    <t># mstatus</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>30402ef3</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">csrr x29, 0x304 </t>
-  </si>
-  <si>
-    <t># mie</t>
-  </si>
-  <si>
-    <t>88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07B02083</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000067</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">csrr x30, 0x344 </t>
-  </si>
-  <si>
-    <t># mip</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>004c8113</t>
-  </si>
-  <si>
-    <t>8C</t>
-  </si>
-  <si>
-    <t>addi x2, x25, 4</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>34111073</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>csrw 0x341, x2</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>30200073</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>mret</t>
-  </si>
-  <si>
-    <t># mret</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>9C</t>
-  </si>
-  <si>
-    <t>A0</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>A4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34402f73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0011 0000 0110 高2位表示可读可写，9 8表示可访问这个寄存器的最低等级特权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,352 +469,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -809,311 +499,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1371,30 +776,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5575221238938" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.10619469026549" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33628318584071" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5575221238938" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.08203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.58203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88495575221239" style="1"/>
+    <col min="7" max="16384" width="8.9140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1414,7 +819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1431,7 +836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1445,7 +850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1459,7 +864,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1473,7 +878,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1487,7 +892,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -1501,7 +906,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1514,8 +919,11 @@
       <c r="E8" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,7 +937,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1543,7 +951,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
@@ -1557,7 +965,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -1571,7 +979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -1585,7 +993,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -1599,7 +1007,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
@@ -1613,7 +1021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1630,7 +1038,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -1644,7 +1052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>58</v>
       </c>
@@ -1661,7 +1069,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>63</v>
       </c>
@@ -1675,38 +1083,38 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -1714,58 +1122,58 @@
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="1" t="s">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="E25" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
@@ -1773,55 +1181,55 @@
         <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="E27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="E28" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="E29" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -1829,160 +1237,160 @@
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="E31" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="1" t="s">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="1" t="s">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="1" t="s">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>65</v>
+      <c r="B36" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="1" t="s">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B38" s="1" t="s">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>54</v>
       </c>
@@ -1990,27 +1398,27 @@
         <v>7</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>60</v>
       </c>
@@ -2018,28 +1426,29 @@
         <v>7</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>